--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Rbp4-Stra6.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Rbp4-Stra6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,16 +76,16 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Rbp4</t>
+  </si>
+  <si>
+    <t>Stra6</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Rbp4</t>
-  </si>
-  <si>
-    <t>Stra6</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1.656305333333333</v>
+      </c>
+      <c r="H2">
+        <v>4.968916</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G2">
-        <v>0.102293</v>
-      </c>
-      <c r="H2">
-        <v>0.306879</v>
-      </c>
-      <c r="I2">
-        <v>0.05816734729078746</v>
-      </c>
-      <c r="J2">
-        <v>0.05816734729078745</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
-      <c r="L2">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M2">
-        <v>1.307784333333333</v>
+        <v>0.033075</v>
       </c>
       <c r="N2">
-        <v>3.923353</v>
+        <v>0.09922499999999999</v>
       </c>
       <c r="O2">
-        <v>0.5216776590734359</v>
+        <v>0.01056319585618255</v>
       </c>
       <c r="P2">
-        <v>0.5216776590734359</v>
+        <v>0.01056319585618256</v>
       </c>
       <c r="Q2">
-        <v>0.1337771828096667</v>
+        <v>0.0547822989</v>
       </c>
       <c r="R2">
-        <v>1.203994645287</v>
+        <v>0.4930406901</v>
       </c>
       <c r="S2">
-        <v>0.03034460556916957</v>
+        <v>0.01056319585618255</v>
       </c>
       <c r="T2">
-        <v>0.03034460556916956</v>
+        <v>0.01056319585618256</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,75 +581,75 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.102293</v>
+        <v>1.656305333333333</v>
       </c>
       <c r="H3">
-        <v>0.306879</v>
+        <v>4.968916</v>
       </c>
       <c r="I3">
-        <v>0.05816734729078746</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.05816734729078745</v>
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>1.199097666666667</v>
+        <v>1.307784333333333</v>
       </c>
       <c r="N3">
-        <v>3.597293000000001</v>
+        <v>3.923353</v>
       </c>
       <c r="O3">
-        <v>0.4783223409265641</v>
+        <v>0.4176683915539571</v>
       </c>
       <c r="P3">
-        <v>0.4783223409265641</v>
+        <v>0.4176683915539571</v>
       </c>
       <c r="Q3">
-        <v>0.1226592976163334</v>
+        <v>2.166090166149778</v>
       </c>
       <c r="R3">
-        <v>1.103933678547</v>
+        <v>19.494811495348</v>
       </c>
       <c r="S3">
-        <v>0.0278227417216179</v>
+        <v>0.4176683915539571</v>
       </c>
       <c r="T3">
-        <v>0.02782274172161789</v>
+        <v>0.4176683915539571</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
         <v>21</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,102 +664,40 @@
         <v>4.968916</v>
       </c>
       <c r="I4">
-        <v>0.9418326527092126</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.9418326527092125</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>1.307784333333333</v>
+        <v>1.790295333333333</v>
       </c>
       <c r="N4">
-        <v>3.923353</v>
+        <v>5.370886</v>
       </c>
       <c r="O4">
-        <v>0.5216776590734359</v>
+        <v>0.5717684125898603</v>
       </c>
       <c r="P4">
-        <v>0.5216776590734359</v>
+        <v>0.5717684125898604</v>
       </c>
       <c r="Q4">
-        <v>2.166090166149778</v>
+        <v>2.965275708841777</v>
       </c>
       <c r="R4">
-        <v>19.494811495348</v>
+        <v>26.687481379576</v>
       </c>
       <c r="S4">
-        <v>0.4913330535042663</v>
+        <v>0.5717684125898603</v>
       </c>
       <c r="T4">
-        <v>0.4913330535042663</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1.656305333333333</v>
-      </c>
-      <c r="H5">
-        <v>4.968916</v>
-      </c>
-      <c r="I5">
-        <v>0.9418326527092126</v>
-      </c>
-      <c r="J5">
-        <v>0.9418326527092125</v>
-      </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>1.199097666666667</v>
-      </c>
-      <c r="N5">
-        <v>3.597293000000001</v>
-      </c>
-      <c r="O5">
-        <v>0.4783223409265641</v>
-      </c>
-      <c r="P5">
-        <v>0.4783223409265641</v>
-      </c>
-      <c r="Q5">
-        <v>1.986071860487556</v>
-      </c>
-      <c r="R5">
-        <v>17.874646744388</v>
-      </c>
-      <c r="S5">
-        <v>0.4504995992049462</v>
-      </c>
-      <c r="T5">
-        <v>0.4504995992049461</v>
+        <v>0.5717684125898604</v>
       </c>
     </row>
   </sheetData>
